--- a/Code/Results/Cases/Case_2_121/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_121/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7803417140986539</v>
+        <v>0.298623555000205</v>
       </c>
       <c r="C2">
-        <v>0.08984826319515093</v>
+        <v>0.03441681897172089</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.4187201473950495</v>
+        <v>0.467434553805262</v>
       </c>
       <c r="F2">
-        <v>1.49598423077046</v>
+        <v>2.252961650663323</v>
       </c>
       <c r="G2">
-        <v>0.0008095505849558593</v>
+        <v>0.002448853630257982</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02736908004862837</v>
+        <v>0.05505876934115239</v>
       </c>
       <c r="K2">
-        <v>0.7742493868487372</v>
+        <v>0.2563543176156884</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.6095347852265505</v>
+        <v>0.4047295761058578</v>
       </c>
       <c r="N2">
-        <v>0.8108985044702028</v>
+        <v>1.677563516305566</v>
       </c>
       <c r="O2">
-        <v>1.406119893320977</v>
+        <v>2.903187944901831</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6777679965138361</v>
+        <v>0.268664072483574</v>
       </c>
       <c r="C3">
-        <v>0.08102832781501235</v>
+        <v>0.03155665027905741</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.3738777210361732</v>
+        <v>0.4583039965379641</v>
       </c>
       <c r="F3">
-        <v>1.387381580056882</v>
+        <v>2.240385623857648</v>
       </c>
       <c r="G3">
-        <v>0.0008129444771289797</v>
+        <v>0.002451054681535669</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0281821694144293</v>
+        <v>0.05541812041655358</v>
       </c>
       <c r="K3">
-        <v>0.6737771535424457</v>
+        <v>0.226211499089942</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.5323044986085819</v>
+        <v>0.3851145555615574</v>
       </c>
       <c r="N3">
-        <v>0.8523768062235675</v>
+        <v>1.695186275403914</v>
       </c>
       <c r="O3">
-        <v>1.395902851462736</v>
+        <v>2.921717797552944</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.614948116079745</v>
+        <v>0.2503166588719523</v>
       </c>
       <c r="C4">
-        <v>0.07560522042752638</v>
+        <v>0.02978792247699147</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.3467717557282413</v>
+        <v>0.4529174375393197</v>
       </c>
       <c r="F4">
-        <v>1.32302622178932</v>
+        <v>2.233850835522588</v>
       </c>
       <c r="G4">
-        <v>0.0008150961511986473</v>
+        <v>0.00245247814346023</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02870232626153335</v>
+        <v>0.05565108186068102</v>
       </c>
       <c r="K4">
-        <v>0.6121685269054069</v>
+        <v>0.2076986425946217</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4852596221311671</v>
+        <v>0.3732434814645487</v>
       </c>
       <c r="N4">
-        <v>0.8789360310529175</v>
+        <v>1.706560772882264</v>
       </c>
       <c r="O4">
-        <v>1.392588377488764</v>
+        <v>2.93461226648931</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5893793407375938</v>
+        <v>0.2428523692134092</v>
       </c>
       <c r="C5">
-        <v>0.07339267031948538</v>
+        <v>0.02906402440986255</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.3358244271866155</v>
+        <v>0.4507776760589479</v>
       </c>
       <c r="F5">
-        <v>1.297350162739662</v>
+        <v>2.231486425928466</v>
       </c>
       <c r="G5">
-        <v>0.0008159903304967298</v>
+        <v>0.002453076375969118</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.02891950394297371</v>
+        <v>0.05574911760701706</v>
       </c>
       <c r="K5">
-        <v>0.5870741083499098</v>
+        <v>0.2001536162798914</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4661718168060673</v>
+        <v>0.3684495328059114</v>
       </c>
       <c r="N5">
-        <v>0.8900271455337605</v>
+        <v>1.711335296381935</v>
       </c>
       <c r="O5">
-        <v>1.391949483938831</v>
+        <v>2.940248299149204</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5851352569276571</v>
+        <v>0.2416136922426517</v>
       </c>
       <c r="C6">
-        <v>0.07302510289148501</v>
+        <v>0.02894363383146725</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.3340123336336518</v>
+        <v>0.4504257128001967</v>
       </c>
       <c r="F6">
-        <v>1.293118832991098</v>
+        <v>2.231111853495946</v>
       </c>
       <c r="G6">
-        <v>0.0008161398651024248</v>
+        <v>0.002453176810156391</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.02895587934604382</v>
+        <v>0.05576558385764585</v>
       </c>
       <c r="K6">
-        <v>0.5829076476120036</v>
+        <v>0.1989007280775184</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4630070291120134</v>
+        <v>0.3676561411970312</v>
       </c>
       <c r="N6">
-        <v>0.8918848222412414</v>
+        <v>1.712136517282824</v>
       </c>
       <c r="O6">
-        <v>1.391885472794883</v>
+        <v>2.941207194319617</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6146031740875628</v>
+        <v>0.2502159419867382</v>
       </c>
       <c r="C7">
-        <v>0.0755753925435485</v>
+        <v>0.02977817234954472</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.3466237285455236</v>
+        <v>0.4528883559406438</v>
       </c>
       <c r="F7">
-        <v>1.322677767588786</v>
+        <v>2.23381773923569</v>
       </c>
       <c r="G7">
-        <v>0.0008151081397755902</v>
+        <v>0.002452486137762424</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.02870523416703818</v>
+        <v>0.05565239143848721</v>
       </c>
       <c r="K7">
-        <v>0.6118300593154657</v>
+        <v>0.2075968908166317</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4850018737420072</v>
+        <v>0.373178651751978</v>
       </c>
       <c r="N7">
-        <v>0.879084532770757</v>
+        <v>1.706624599657731</v>
       </c>
       <c r="O7">
-        <v>1.39257692063795</v>
+        <v>2.934686731657891</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7449349538906063</v>
+        <v>0.2882838308075009</v>
       </c>
       <c r="C8">
-        <v>0.08680831302282854</v>
+        <v>0.03343326204610264</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.4031642261389763</v>
+        <v>0.4642407922999325</v>
       </c>
       <c r="F8">
-        <v>1.458032823952394</v>
+        <v>2.248379138391257</v>
       </c>
       <c r="G8">
-        <v>0.0008107069117061328</v>
+        <v>0.00244959763973098</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.02764506137211242</v>
+        <v>0.05518011963284941</v>
       </c>
       <c r="K8">
-        <v>0.7395840212879534</v>
+        <v>0.2459623402385773</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.5828212238215329</v>
+        <v>0.3979306023690725</v>
       </c>
       <c r="N8">
-        <v>0.8249697525816799</v>
+        <v>1.683524853164883</v>
       </c>
       <c r="O8">
-        <v>1.401963052509259</v>
+        <v>2.909262140833292</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.00226235088715</v>
+        <v>0.3633003814890401</v>
       </c>
       <c r="C9">
-        <v>0.1088091049614235</v>
+        <v>0.04049993440804656</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.5178643147717779</v>
+        <v>0.488244007607463</v>
       </c>
       <c r="F9">
-        <v>1.74365639493638</v>
+        <v>2.286351825669755</v>
       </c>
       <c r="G9">
-        <v>0.0008025996845145308</v>
+        <v>0.002444502213406256</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.02573432928974562</v>
+        <v>0.05435152549193578</v>
       </c>
       <c r="K9">
-        <v>0.99119895652683</v>
+        <v>0.3211437410408848</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.7781494407210943</v>
+        <v>0.4478327644070745</v>
       </c>
       <c r="N9">
-        <v>0.7278124276946194</v>
+        <v>1.642621685712802</v>
       </c>
       <c r="O9">
-        <v>1.445382641230395</v>
+        <v>2.871445381947296</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.193099768053202</v>
+        <v>0.4186246218485508</v>
       </c>
       <c r="C10">
-        <v>0.1250086320310686</v>
+        <v>0.04562915394060951</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.605115337833837</v>
+        <v>0.5069408832672906</v>
       </c>
       <c r="F10">
-        <v>1.968388790725271</v>
+        <v>2.319998355734953</v>
       </c>
       <c r="G10">
-        <v>0.0007969411188595677</v>
+        <v>0.002441102004141308</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.0244363563893657</v>
+        <v>0.05380190815052632</v>
       </c>
       <c r="K10">
-        <v>1.177395565480538</v>
+        <v>0.3763348939390312</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.9245929756710538</v>
+        <v>0.4853232010151061</v>
       </c>
       <c r="N10">
-        <v>0.6623337620029135</v>
+        <v>1.615247596143996</v>
       </c>
       <c r="O10">
-        <v>1.494797723861012</v>
+        <v>2.851008854607102</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.280473996301367</v>
+        <v>0.4438360759431532</v>
       </c>
       <c r="C11">
-        <v>0.1323986548634792</v>
+        <v>0.04794875257616127</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.6456117229275407</v>
+        <v>0.5156773341620067</v>
       </c>
       <c r="F11">
-        <v>2.074474148797364</v>
+        <v>2.336555025449258</v>
       </c>
       <c r="G11">
-        <v>0.0007944265438404005</v>
+        <v>0.002439628999058967</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.02386962082331934</v>
+        <v>0.0535646517222661</v>
       </c>
       <c r="K11">
-        <v>1.262552429263252</v>
+        <v>0.4014308166467231</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.9920436096198557</v>
+        <v>0.5025576161731422</v>
       </c>
       <c r="N11">
-        <v>0.6339319273749036</v>
+        <v>1.603375370641158</v>
       </c>
       <c r="O11">
-        <v>1.521619987915415</v>
+        <v>2.843308894242995</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.313656034054787</v>
+        <v>0.4533890140744177</v>
       </c>
       <c r="C12">
-        <v>0.1352011805291937</v>
+        <v>0.04882512436472553</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.6610764670401466</v>
+        <v>0.5190188035788594</v>
       </c>
       <c r="F12">
-        <v>2.115255276062825</v>
+        <v>2.343004474511858</v>
       </c>
       <c r="G12">
-        <v>0.0007934824641381437</v>
+        <v>0.002439081763396522</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.02365849392590658</v>
+        <v>0.05347664018510301</v>
       </c>
       <c r="K12">
-        <v>1.294878705771936</v>
+        <v>0.4109321190989306</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.017722224154554</v>
+        <v>0.5091095540862653</v>
       </c>
       <c r="N12">
-        <v>0.6233855349586861</v>
+        <v>1.598963133459497</v>
       </c>
       <c r="O12">
-        <v>1.532449757693001</v>
+        <v>2.840622846336316</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.306505205435116</v>
+        <v>0.4513313622732937</v>
       </c>
       <c r="C13">
-        <v>0.1345974063261934</v>
+        <v>0.04863647202178356</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.6577398600158233</v>
+        <v>0.5182976845037786</v>
       </c>
       <c r="F13">
-        <v>2.106444332564223</v>
+        <v>2.341607474524011</v>
       </c>
       <c r="G13">
-        <v>0.0007936854338201096</v>
+        <v>0.002439199151476954</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.02370380774163827</v>
+        <v>0.05349551360852978</v>
       </c>
       <c r="K13">
-        <v>1.287912909705966</v>
+        <v>0.4088859383818431</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.012185521982076</v>
+        <v>0.5076973402377618</v>
       </c>
       <c r="N13">
-        <v>0.6256474436891821</v>
+        <v>1.599909672283708</v>
       </c>
       <c r="O13">
-        <v>1.530086647067122</v>
+        <v>2.841191113718878</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.283201904839586</v>
+        <v>0.4446218860665851</v>
       </c>
       <c r="C14">
-        <v>0.1326291318521555</v>
+        <v>0.04802089271304055</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.6468813354489669</v>
+        <v>0.5159515746074845</v>
       </c>
       <c r="F14">
-        <v>2.077816704728178</v>
+        <v>2.337082022385232</v>
       </c>
       <c r="G14">
-        <v>0.0007943487132562146</v>
+        <v>0.002439583766392604</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.02385218103775877</v>
+        <v>0.05355737425804907</v>
       </c>
       <c r="K14">
-        <v>1.265210261121211</v>
+        <v>0.4022125366073226</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.994153367803392</v>
+        <v>0.5030961354681978</v>
       </c>
       <c r="N14">
-        <v>0.6330600277446257</v>
+        <v>1.603010699084702</v>
       </c>
       <c r="O14">
-        <v>1.522497187995128</v>
+        <v>2.843083305849916</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.268940824566158</v>
+        <v>0.4405128942843533</v>
       </c>
       <c r="C15">
-        <v>0.1314240730109333</v>
+        <v>0.04764356972466999</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.640247487627235</v>
+        <v>0.5145188314330937</v>
       </c>
       <c r="F15">
-        <v>2.060362449998323</v>
+        <v>2.334333465723105</v>
       </c>
       <c r="G15">
-        <v>0.0007947560375062279</v>
+        <v>0.002439820727688836</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.02394351986528864</v>
+        <v>0.05359550420858294</v>
       </c>
       <c r="K15">
-        <v>1.251314976999225</v>
+        <v>0.3981246150327706</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.9831264522341243</v>
+        <v>0.5002810970966891</v>
       </c>
       <c r="N15">
-        <v>0.6376279344973064</v>
+        <v>1.604921045692223</v>
       </c>
       <c r="O15">
-        <v>1.517937528214787</v>
+        <v>2.844272254273136</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.187402175563733</v>
+        <v>0.4169778449723935</v>
       </c>
       <c r="C16">
-        <v>0.1245261863220861</v>
+        <v>0.04547728355825598</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.6024861683167586</v>
+        <v>0.5063745806460389</v>
       </c>
       <c r="F16">
-        <v>1.961537994397219</v>
+        <v>2.318941501262657</v>
       </c>
       <c r="G16">
-        <v>0.000797106614518222</v>
+        <v>0.002441199748817147</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.02447387730103934</v>
+        <v>0.05381767001769511</v>
       </c>
       <c r="K16">
-        <v>1.171840676020736</v>
+        <v>0.3746945625717331</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.9202030797396858</v>
+        <v>0.4842004912421203</v>
       </c>
       <c r="N16">
-        <v>0.6642185625188333</v>
+        <v>1.616035157749907</v>
       </c>
       <c r="O16">
-        <v>1.493136265891025</v>
+        <v>2.851544208313186</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.137534677772521</v>
+        <v>0.4025508531624951</v>
       </c>
       <c r="C17">
-        <v>0.1203006282790113</v>
+        <v>0.04414479849616271</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.5795366138458533</v>
+        <v>0.5014374967557274</v>
       </c>
       <c r="F17">
-        <v>1.901937058159874</v>
+        <v>2.309819326365087</v>
       </c>
       <c r="G17">
-        <v>0.000798563571212414</v>
+        <v>0.00244206459241548</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.02480535982648924</v>
+        <v>0.05395722897891808</v>
       </c>
       <c r="K17">
-        <v>1.12321180649127</v>
+        <v>0.3603179136997028</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.8818264479691749</v>
+        <v>0.4743814621153604</v>
       </c>
       <c r="N17">
-        <v>0.6808923724682119</v>
+        <v>1.623001996616381</v>
       </c>
       <c r="O17">
-        <v>1.479067127402772</v>
+        <v>2.856414383682619</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.108904111592807</v>
+        <v>0.3942570140825978</v>
       </c>
       <c r="C18">
-        <v>0.1178720834931255</v>
+        <v>0.04337710026767638</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.566411561232087</v>
+        <v>0.498619577880099</v>
       </c>
       <c r="F18">
-        <v>1.86801536760035</v>
+        <v>2.304690216945232</v>
       </c>
       <c r="G18">
-        <v>0.0007994072048967799</v>
+        <v>0.002442568973722969</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.02499824772585857</v>
+        <v>0.05403870152900225</v>
       </c>
       <c r="K18">
-        <v>1.095283717448979</v>
+        <v>0.3520478534358062</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.8598305269279294</v>
+        <v>0.4687507556649493</v>
       </c>
       <c r="N18">
-        <v>0.6906124300760146</v>
+        <v>1.627063762985275</v>
       </c>
       <c r="O18">
-        <v>1.471380642123734</v>
+        <v>2.859365861181146</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.099218780152057</v>
+        <v>0.3914495950286891</v>
       </c>
       <c r="C19">
-        <v>0.1170501117365461</v>
+        <v>0.04311695078756372</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.5619801086600944</v>
+        <v>0.4976692187210077</v>
       </c>
       <c r="F19">
-        <v>1.856590154513015</v>
+        <v>2.302973809440374</v>
       </c>
       <c r="G19">
-        <v>0.0007996938243834243</v>
+        <v>0.002442740942954519</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.02506393675295726</v>
+        <v>0.05406649327669211</v>
       </c>
       <c r="K19">
-        <v>1.085834548368979</v>
+        <v>0.3492475956717271</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.8523958724119325</v>
+        <v>0.4668472112656019</v>
       </c>
       <c r="N19">
-        <v>0.6939254714398455</v>
+        <v>1.628448387444825</v>
       </c>
       <c r="O19">
-        <v>1.468846396647905</v>
+        <v>2.860390987063283</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.14283768429155</v>
+        <v>0.4040862011599131</v>
       </c>
       <c r="C20">
-        <v>0.1207502434724148</v>
+        <v>0.04428677739497289</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.5819717820776873</v>
+        <v>0.5019608060962355</v>
       </c>
       <c r="F20">
-        <v>1.908244120802863</v>
+        <v>2.310778213796382</v>
       </c>
       <c r="G20">
-        <v>0.0007984078959088806</v>
+        <v>0.002441971809750189</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.0247698418509783</v>
+        <v>0.0539422483203218</v>
       </c>
       <c r="K20">
-        <v>1.128383994437229</v>
+        <v>0.3618484382663496</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.8859035879827033</v>
+        <v>0.4754249629569642</v>
       </c>
       <c r="N20">
-        <v>0.6791039233236118</v>
+        <v>1.622254710836049</v>
       </c>
       <c r="O20">
-        <v>1.480522483051658</v>
+        <v>2.855880390519303</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.290043940632472</v>
+        <v>0.4465924650872921</v>
       </c>
       <c r="C21">
-        <v>0.133207141704915</v>
+        <v>0.04820175813125616</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.6500671132966289</v>
+        <v>0.5166397844526784</v>
       </c>
       <c r="F21">
-        <v>2.086208350229853</v>
+        <v>2.338406378127416</v>
       </c>
       <c r="G21">
-        <v>0.0007941536748211365</v>
+        <v>0.002439470509614961</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.0238085050589314</v>
+        <v>0.05353915458539316</v>
       </c>
       <c r="K21">
-        <v>1.27187631427492</v>
+        <v>0.4041727335611824</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.9994460031827899</v>
+        <v>0.5044469267666756</v>
       </c>
       <c r="N21">
-        <v>0.6308770261300722</v>
+        <v>1.602097585238026</v>
       </c>
       <c r="O21">
-        <v>1.52470773616173</v>
+        <v>2.842521286304446</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.386814864602371</v>
+        <v>0.4744069931331012</v>
       </c>
       <c r="C22">
-        <v>0.1413728319743512</v>
+        <v>0.05074869146996264</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.6953342225952639</v>
+        <v>0.526426622474375</v>
       </c>
       <c r="F22">
-        <v>2.206095902438491</v>
+        <v>2.357510954882585</v>
       </c>
       <c r="G22">
-        <v>0.0007914204966144034</v>
+        <v>0.002437897289722546</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.02320055778905061</v>
+        <v>0.05328638806975849</v>
       </c>
       <c r="K22">
-        <v>1.366125762391135</v>
+        <v>0.4318223761812305</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.07445704449264</v>
+        <v>0.52356379868273</v>
       </c>
       <c r="N22">
-        <v>0.6005797702533</v>
+        <v>1.589410568236127</v>
       </c>
       <c r="O22">
-        <v>1.557531616418999</v>
+        <v>2.835129628275382</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.335109767103575</v>
+        <v>0.4595588714343251</v>
       </c>
       <c r="C23">
-        <v>0.1370120299174431</v>
+        <v>0.04939043147732036</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.6710996541067544</v>
+        <v>0.5211855423673484</v>
       </c>
       <c r="F23">
-        <v>2.141763102219386</v>
+        <v>2.347218609799597</v>
       </c>
       <c r="G23">
-        <v>0.0007928750742468705</v>
+        <v>0.002438731333071994</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.02352314417239221</v>
+        <v>0.0534203184065607</v>
       </c>
       <c r="K23">
-        <v>1.315775320665693</v>
+        <v>0.4170664551641892</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.034342737303639</v>
+        <v>0.5133471724841385</v>
       </c>
       <c r="N23">
-        <v>0.6166348285118035</v>
+        <v>1.596137303017574</v>
       </c>
       <c r="O23">
-        <v>1.539634966168563</v>
+        <v>2.838952099258762</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.140440074899686</v>
+        <v>0.4033920689558386</v>
       </c>
       <c r="C24">
-        <v>0.12054697008071</v>
+        <v>0.0442225938243439</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.5808706287816321</v>
+        <v>0.5017241541558377</v>
       </c>
       <c r="F24">
-        <v>1.905391631382983</v>
+        <v>2.310344341473368</v>
       </c>
       <c r="G24">
-        <v>0.0007984782580291522</v>
+        <v>0.002442013734416874</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.02478589232496198</v>
+        <v>0.05394901721871292</v>
       </c>
       <c r="K24">
-        <v>1.126045558045888</v>
+        <v>0.3611565028215864</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.8840601045616765</v>
+        <v>0.4749531514052947</v>
       </c>
       <c r="N24">
-        <v>0.6799120643298115</v>
+        <v>1.622592382937378</v>
       </c>
       <c r="O24">
-        <v>1.479863268073842</v>
+        <v>2.856121336769661</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.932390570683566</v>
+        <v>0.3429686544833714</v>
       </c>
       <c r="C25">
-        <v>0.1028550749529273</v>
+        <v>0.03859913604028975</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.486361189289461</v>
+        <v>0.4815640737982321</v>
       </c>
       <c r="F25">
-        <v>1.6639705890275</v>
+        <v>2.275070279599689</v>
       </c>
       <c r="G25">
-        <v>0.0008047389891410703</v>
+        <v>0.002445820110854832</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.02623289350608893</v>
+        <v>0.05456527271707845</v>
       </c>
       <c r="K25">
-        <v>0.9229472916676968</v>
+        <v>0.3008121332303517</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.724853580750036</v>
+        <v>0.4341873307988706</v>
       </c>
       <c r="N25">
-        <v>0.7530930129006492</v>
+        <v>1.653216747300803</v>
       </c>
       <c r="O25">
-        <v>1.430733478837141</v>
+        <v>2.880386043370947</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_121/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_121/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.298623555000205</v>
+        <v>0.7803417140985971</v>
       </c>
       <c r="C2">
-        <v>0.03441681897172089</v>
+        <v>0.08984826319516515</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.467434553805262</v>
+        <v>0.4187201473950353</v>
       </c>
       <c r="F2">
-        <v>2.252961650663323</v>
+        <v>1.49598423077046</v>
       </c>
       <c r="G2">
-        <v>0.002448853630257982</v>
+        <v>0.0008095505848985163</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.05505876934115239</v>
+        <v>0.02736908004852268</v>
       </c>
       <c r="K2">
-        <v>0.2563543176156884</v>
+        <v>0.7742493868487941</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.4047295761058578</v>
+        <v>0.6095347852265505</v>
       </c>
       <c r="N2">
-        <v>1.677563516305566</v>
+        <v>0.8108985044702632</v>
       </c>
       <c r="O2">
-        <v>2.903187944901831</v>
+        <v>1.40611989332092</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.268664072483574</v>
+        <v>0.6777679965139214</v>
       </c>
       <c r="C3">
-        <v>0.03155665027905741</v>
+        <v>0.08102832781488445</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.4583039965379641</v>
+        <v>0.3738777210361661</v>
       </c>
       <c r="F3">
-        <v>2.240385623857648</v>
+        <v>1.387381580056882</v>
       </c>
       <c r="G3">
-        <v>0.002451054681535669</v>
+        <v>0.0008129444771109636</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.05541812041655358</v>
+        <v>0.02818216941452611</v>
       </c>
       <c r="K3">
-        <v>0.226211499089942</v>
+        <v>0.6737771535424599</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3851145555615574</v>
+        <v>0.5323044986085819</v>
       </c>
       <c r="N3">
-        <v>1.695186275403914</v>
+        <v>0.8523768062235559</v>
       </c>
       <c r="O3">
-        <v>2.921717797552944</v>
+        <v>1.395902851462722</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2503166588719523</v>
+        <v>0.6149481160798587</v>
       </c>
       <c r="C4">
-        <v>0.02978792247699147</v>
+        <v>0.07560522042771112</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.4529174375393197</v>
+        <v>0.3467717557282484</v>
       </c>
       <c r="F4">
-        <v>2.233850835522588</v>
+        <v>1.323026221789334</v>
       </c>
       <c r="G4">
-        <v>0.00245247814346023</v>
+        <v>0.0008150961511998636</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05565108186068102</v>
+        <v>0.02870232626148272</v>
       </c>
       <c r="K4">
-        <v>0.2076986425946217</v>
+        <v>0.6121685269054069</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3732434814645487</v>
+        <v>0.4852596221311742</v>
       </c>
       <c r="N4">
-        <v>1.706560772882264</v>
+        <v>0.8789360310529193</v>
       </c>
       <c r="O4">
-        <v>2.93461226648931</v>
+        <v>1.39258837748875</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2428523692134092</v>
+        <v>0.5893793407378212</v>
       </c>
       <c r="C5">
-        <v>0.02906402440986255</v>
+        <v>0.07339267031971275</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.4507776760589479</v>
+        <v>0.3358244271866084</v>
       </c>
       <c r="F5">
-        <v>2.231486425928466</v>
+        <v>1.297350162739676</v>
       </c>
       <c r="G5">
-        <v>0.002453076375969118</v>
+        <v>0.0008159903306143676</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.05574911760701706</v>
+        <v>0.02891950394291776</v>
       </c>
       <c r="K5">
-        <v>0.2001536162798914</v>
+        <v>0.5870741083499098</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3684495328059114</v>
+        <v>0.466171816806046</v>
       </c>
       <c r="N5">
-        <v>1.711335296381935</v>
+        <v>0.8900271455337618</v>
       </c>
       <c r="O5">
-        <v>2.940248299149204</v>
+        <v>1.391949483938802</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2416136922426517</v>
+        <v>0.5851352569278276</v>
       </c>
       <c r="C6">
-        <v>0.02894363383146725</v>
+        <v>0.07302510289171948</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.4504257128001967</v>
+        <v>0.3340123336336234</v>
       </c>
       <c r="F6">
-        <v>2.231111853495946</v>
+        <v>1.293118832991084</v>
       </c>
       <c r="G6">
-        <v>0.002453176810156391</v>
+        <v>0.0008161398651026193</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.05576558385764585</v>
+        <v>0.02895587934605182</v>
       </c>
       <c r="K6">
-        <v>0.1989007280775184</v>
+        <v>0.5829076476119468</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3676561411970312</v>
+        <v>0.4630070291119992</v>
       </c>
       <c r="N6">
-        <v>1.712136517282824</v>
+        <v>0.8918848222412419</v>
       </c>
       <c r="O6">
-        <v>2.941207194319617</v>
+        <v>1.391885472794826</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2502159419867382</v>
+        <v>0.6146031740875628</v>
       </c>
       <c r="C7">
-        <v>0.02977817234954472</v>
+        <v>0.07557539254348455</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.4528883559406438</v>
+        <v>0.3466237285455307</v>
       </c>
       <c r="F7">
-        <v>2.23381773923569</v>
+        <v>1.322677767588772</v>
       </c>
       <c r="G7">
-        <v>0.002452486137762424</v>
+        <v>0.0008151081397944132</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.05565239143848721</v>
+        <v>0.02870523416706305</v>
       </c>
       <c r="K7">
-        <v>0.2075968908166317</v>
+        <v>0.6118300593154373</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.373178651751978</v>
+        <v>0.4850018737420214</v>
       </c>
       <c r="N7">
-        <v>1.706624599657731</v>
+        <v>0.8790845327707069</v>
       </c>
       <c r="O7">
-        <v>2.934686731657891</v>
+        <v>1.392576920637893</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2882838308075009</v>
+        <v>0.7449349538908336</v>
       </c>
       <c r="C8">
-        <v>0.03343326204610264</v>
+        <v>0.08680831302306302</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.4642407922999325</v>
+        <v>0.4031642261389479</v>
       </c>
       <c r="F8">
-        <v>2.248379138391257</v>
+        <v>1.458032823952394</v>
       </c>
       <c r="G8">
-        <v>0.00244959763973098</v>
+        <v>0.000810706911705954</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.05518011963284941</v>
+        <v>0.02764506137216838</v>
       </c>
       <c r="K8">
-        <v>0.2459623402385773</v>
+        <v>0.7395840212880671</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3979306023690725</v>
+        <v>0.58282122382154</v>
       </c>
       <c r="N8">
-        <v>1.683524853164883</v>
+        <v>0.8249697525817314</v>
       </c>
       <c r="O8">
-        <v>2.909262140833292</v>
+        <v>1.401963052509245</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3633003814890401</v>
+        <v>1.002262350887264</v>
       </c>
       <c r="C9">
-        <v>0.04049993440804656</v>
+        <v>0.1088091049610966</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.488244007607463</v>
+        <v>0.5178643147717636</v>
       </c>
       <c r="F9">
-        <v>2.286351825669755</v>
+        <v>1.743656394936366</v>
       </c>
       <c r="G9">
-        <v>0.002444502213406256</v>
+        <v>0.0008025996845714152</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.05435152549193578</v>
+        <v>0.0257343292897918</v>
       </c>
       <c r="K9">
-        <v>0.3211437410408848</v>
+        <v>0.9911989565270005</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4478327644070745</v>
+        <v>0.7781494407210943</v>
       </c>
       <c r="N9">
-        <v>1.642621685712802</v>
+        <v>0.7278124276946611</v>
       </c>
       <c r="O9">
-        <v>2.871445381947296</v>
+        <v>1.445382641230481</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4186246218485508</v>
+        <v>1.193099768053173</v>
       </c>
       <c r="C10">
-        <v>0.04562915394060951</v>
+        <v>0.1250086320308412</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.5069408832672906</v>
+        <v>0.6051153378338796</v>
       </c>
       <c r="F10">
-        <v>2.319998355734953</v>
+        <v>1.968388790725271</v>
       </c>
       <c r="G10">
-        <v>0.002441102004141308</v>
+        <v>0.0007969411189190682</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.05380190815052632</v>
+        <v>0.0244363563893728</v>
       </c>
       <c r="K10">
-        <v>0.3763348939390312</v>
+        <v>1.177395565480509</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.4853232010151061</v>
+        <v>0.924592975671068</v>
       </c>
       <c r="N10">
-        <v>1.615247596143996</v>
+        <v>0.6623337620028673</v>
       </c>
       <c r="O10">
-        <v>2.851008854607102</v>
+        <v>1.494797723861069</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4438360759431532</v>
+        <v>1.280473996301481</v>
       </c>
       <c r="C11">
-        <v>0.04794875257616127</v>
+        <v>0.1323986548637066</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.5156773341620067</v>
+        <v>0.6456117229275264</v>
       </c>
       <c r="F11">
-        <v>2.336555025449258</v>
+        <v>2.074474148797378</v>
       </c>
       <c r="G11">
-        <v>0.002439628999058967</v>
+        <v>0.0007944265437807745</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0535646517222661</v>
+        <v>0.02386962082331401</v>
       </c>
       <c r="K11">
-        <v>0.4014308166467231</v>
+        <v>1.262552429263309</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.5025576161731422</v>
+        <v>0.9920436096198486</v>
       </c>
       <c r="N11">
-        <v>1.603375370641158</v>
+        <v>0.6339319273749009</v>
       </c>
       <c r="O11">
-        <v>2.843308894242995</v>
+        <v>1.521619987915471</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4533890140744177</v>
+        <v>1.313656034054873</v>
       </c>
       <c r="C12">
-        <v>0.04882512436472553</v>
+        <v>0.1352011805294211</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.5190188035788594</v>
+        <v>0.6610764670401466</v>
       </c>
       <c r="F12">
-        <v>2.343004474511858</v>
+        <v>2.115255276062811</v>
       </c>
       <c r="G12">
-        <v>0.002439081763396522</v>
+        <v>0.0007934824640559624</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.05347664018510301</v>
+        <v>0.02365849392589237</v>
       </c>
       <c r="K12">
-        <v>0.4109321190989306</v>
+        <v>1.294878705771964</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.5091095540862653</v>
+        <v>1.017722224154575</v>
       </c>
       <c r="N12">
-        <v>1.598963133459497</v>
+        <v>0.6233855349586754</v>
       </c>
       <c r="O12">
-        <v>2.840622846336316</v>
+        <v>1.532449757693058</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4513313622732937</v>
+        <v>1.306505205435343</v>
       </c>
       <c r="C13">
-        <v>0.04863647202178356</v>
+        <v>0.1345974063261082</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.5182976845037786</v>
+        <v>0.6577398600158233</v>
       </c>
       <c r="F13">
-        <v>2.341607474524011</v>
+        <v>2.106444332564209</v>
       </c>
       <c r="G13">
-        <v>0.002439199151476954</v>
+        <v>0.0007936854338785428</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.05349551360852978</v>
+        <v>0.02370380774164449</v>
       </c>
       <c r="K13">
-        <v>0.4088859383818431</v>
+        <v>1.287912909705966</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.5076973402377618</v>
+        <v>1.01218552198209</v>
       </c>
       <c r="N13">
-        <v>1.599909672283708</v>
+        <v>0.6256474436892558</v>
       </c>
       <c r="O13">
-        <v>2.841191113718878</v>
+        <v>1.530086647067122</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4446218860665851</v>
+        <v>1.283201904839444</v>
       </c>
       <c r="C14">
-        <v>0.04802089271304055</v>
+        <v>0.1326291318524682</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.5159515746074845</v>
+        <v>0.6468813354489384</v>
       </c>
       <c r="F14">
-        <v>2.337082022385232</v>
+        <v>2.077816704728178</v>
       </c>
       <c r="G14">
-        <v>0.002439583766392604</v>
+        <v>0.0007943487132788076</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.05355737425804907</v>
+        <v>0.02385218103780407</v>
       </c>
       <c r="K14">
-        <v>0.4022125366073226</v>
+        <v>1.26521026112124</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.5030961354681978</v>
+        <v>0.9941533678033849</v>
       </c>
       <c r="N14">
-        <v>1.603010699084702</v>
+        <v>0.633060027744679</v>
       </c>
       <c r="O14">
-        <v>2.843083305849916</v>
+        <v>1.522497187995128</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4405128942843533</v>
+        <v>1.268940824566243</v>
       </c>
       <c r="C15">
-        <v>0.04764356972466999</v>
+        <v>0.1314240730109617</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.5145188314330937</v>
+        <v>0.6402474876272493</v>
       </c>
       <c r="F15">
-        <v>2.334333465723105</v>
+        <v>2.060362449998323</v>
       </c>
       <c r="G15">
-        <v>0.002439820727688836</v>
+        <v>0.0007947560374839158</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.05359550420858294</v>
+        <v>0.02394351986526999</v>
       </c>
       <c r="K15">
-        <v>0.3981246150327706</v>
+        <v>1.251314976999168</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.5002810970966891</v>
+        <v>0.9831264522341243</v>
       </c>
       <c r="N15">
-        <v>1.604921045692223</v>
+        <v>0.6376279344972904</v>
       </c>
       <c r="O15">
-        <v>2.844272254273136</v>
+        <v>1.517937528214844</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4169778449723935</v>
+        <v>1.187402175563875</v>
       </c>
       <c r="C16">
-        <v>0.04547728355825598</v>
+        <v>0.1245261863220719</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.5063745806460389</v>
+        <v>0.6024861683167728</v>
       </c>
       <c r="F16">
-        <v>2.318941501262657</v>
+        <v>1.961537994397204</v>
       </c>
       <c r="G16">
-        <v>0.002441199748817147</v>
+        <v>0.0007971066145194141</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.05381767001769511</v>
+        <v>0.02447387730100115</v>
       </c>
       <c r="K16">
-        <v>0.3746945625717331</v>
+        <v>1.171840676020707</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.4842004912421203</v>
+        <v>0.920203079739693</v>
       </c>
       <c r="N16">
-        <v>1.616035157749907</v>
+        <v>0.6642185625187853</v>
       </c>
       <c r="O16">
-        <v>2.851544208313186</v>
+        <v>1.493136265890968</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4025508531624951</v>
+        <v>1.137534677772493</v>
       </c>
       <c r="C17">
-        <v>0.04414479849616271</v>
+        <v>0.1203006282789261</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.5014374967557274</v>
+        <v>0.5795366138458675</v>
       </c>
       <c r="F17">
-        <v>2.309819326365087</v>
+        <v>1.901937058159874</v>
       </c>
       <c r="G17">
-        <v>0.00244206459241548</v>
+        <v>0.0007985635712128428</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.05395722897891808</v>
+        <v>0.0248053598263942</v>
       </c>
       <c r="K17">
-        <v>0.3603179136997028</v>
+        <v>1.123211806491327</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.4743814621153604</v>
+        <v>0.881826447969182</v>
       </c>
       <c r="N17">
-        <v>1.623001996616381</v>
+        <v>0.6808923724682163</v>
       </c>
       <c r="O17">
-        <v>2.856414383682619</v>
+        <v>1.479067127402857</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3942570140825978</v>
+        <v>1.108904111592807</v>
       </c>
       <c r="C18">
-        <v>0.04337710026767638</v>
+        <v>0.1178720834933529</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.498619577880099</v>
+        <v>0.5664115612320586</v>
       </c>
       <c r="F18">
-        <v>2.304690216945232</v>
+        <v>1.86801536760035</v>
       </c>
       <c r="G18">
-        <v>0.002442568973722969</v>
+        <v>0.0007994072049547209</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.05403870152900225</v>
+        <v>0.02499824772591452</v>
       </c>
       <c r="K18">
-        <v>0.3520478534358062</v>
+        <v>1.09528371744895</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.4687507556649493</v>
+        <v>0.8598305269279507</v>
       </c>
       <c r="N18">
-        <v>1.627063762985275</v>
+        <v>0.6906124300760235</v>
       </c>
       <c r="O18">
-        <v>2.859365861181146</v>
+        <v>1.471380642123705</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3914495950286891</v>
+        <v>1.099218780152057</v>
       </c>
       <c r="C19">
-        <v>0.04311695078756372</v>
+        <v>0.1170501117360629</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.4976692187210077</v>
+        <v>0.5619801086600731</v>
       </c>
       <c r="F19">
-        <v>2.302973809440374</v>
+        <v>1.856590154513029</v>
       </c>
       <c r="G19">
-        <v>0.002442740942954519</v>
+        <v>0.0007996938243033543</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.05406649327669211</v>
+        <v>0.02506393675287999</v>
       </c>
       <c r="K19">
-        <v>0.3492475956717271</v>
+        <v>1.085834548368922</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.4668472112656019</v>
+        <v>0.8523958724119538</v>
       </c>
       <c r="N19">
-        <v>1.628448387444825</v>
+        <v>0.6939254714398242</v>
       </c>
       <c r="O19">
-        <v>2.860390987063283</v>
+        <v>1.46884639664782</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4040862011599131</v>
+        <v>1.14283768429172</v>
       </c>
       <c r="C20">
-        <v>0.04428677739497289</v>
+        <v>0.1207502434725569</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.5019608060962355</v>
+        <v>0.5819717820777086</v>
       </c>
       <c r="F20">
-        <v>2.310778213796382</v>
+        <v>1.908244120802848</v>
       </c>
       <c r="G20">
-        <v>0.002441971809750189</v>
+        <v>0.0007984078959897909</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.0539422483203218</v>
+        <v>0.02476984185103603</v>
       </c>
       <c r="K20">
-        <v>0.3618484382663496</v>
+        <v>1.128383994437115</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.4754249629569642</v>
+        <v>0.8859035879826749</v>
       </c>
       <c r="N20">
-        <v>1.622254710836049</v>
+        <v>0.67910392332361</v>
       </c>
       <c r="O20">
-        <v>2.855880390519303</v>
+        <v>1.480522483051629</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4465924650872921</v>
+        <v>1.290043940632444</v>
       </c>
       <c r="C21">
-        <v>0.04820175813125616</v>
+        <v>0.1332071417051566</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.5166397844526784</v>
+        <v>0.6500671132966289</v>
       </c>
       <c r="F21">
-        <v>2.338406378127416</v>
+        <v>2.086208350229853</v>
       </c>
       <c r="G21">
-        <v>0.002439470509614961</v>
+        <v>0.0007941536748218572</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.05353915458539316</v>
+        <v>0.02380850505888166</v>
       </c>
       <c r="K21">
-        <v>0.4041727335611824</v>
+        <v>1.271876314274692</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.5044469267666756</v>
+        <v>0.9994460031827828</v>
       </c>
       <c r="N21">
-        <v>1.602097585238026</v>
+        <v>0.6308770261300731</v>
       </c>
       <c r="O21">
-        <v>2.842521286304446</v>
+        <v>1.524707736161616</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4744069931331012</v>
+        <v>1.38681486460257</v>
       </c>
       <c r="C22">
-        <v>0.05074869146996264</v>
+        <v>0.141372831974337</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.526426622474375</v>
+        <v>0.6953342225952639</v>
       </c>
       <c r="F22">
-        <v>2.357510954882585</v>
+        <v>2.206095902438477</v>
       </c>
       <c r="G22">
-        <v>0.002437897289722546</v>
+        <v>0.0007914204966423009</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.05328638806975849</v>
+        <v>0.02320055778919983</v>
       </c>
       <c r="K22">
-        <v>0.4318223761812305</v>
+        <v>1.366125762391135</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.52356379868273</v>
+        <v>1.074457044492647</v>
       </c>
       <c r="N22">
-        <v>1.589410568236127</v>
+        <v>0.6005797702532885</v>
       </c>
       <c r="O22">
-        <v>2.835129628275382</v>
+        <v>1.557531616418999</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4595588714343251</v>
+        <v>1.335109767103489</v>
       </c>
       <c r="C23">
-        <v>0.04939043147732036</v>
+        <v>0.1370120299176136</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.5211855423673484</v>
+        <v>0.6710996541067544</v>
       </c>
       <c r="F23">
-        <v>2.347218609799597</v>
+        <v>2.141763102219386</v>
       </c>
       <c r="G23">
-        <v>0.002438731333071994</v>
+        <v>0.0007928750741904926</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.0534203184065607</v>
+        <v>0.02352314417239842</v>
       </c>
       <c r="K23">
-        <v>0.4170664551641892</v>
+        <v>1.315775320665722</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.5133471724841385</v>
+        <v>1.034342737303632</v>
       </c>
       <c r="N23">
-        <v>1.596137303017574</v>
+        <v>0.6166348285118071</v>
       </c>
       <c r="O23">
-        <v>2.838952099258762</v>
+        <v>1.539634966168563</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4033920689558386</v>
+        <v>1.140440074899658</v>
       </c>
       <c r="C24">
-        <v>0.0442225938243439</v>
+        <v>0.1205469700807242</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.5017241541558377</v>
+        <v>0.5808706287816463</v>
       </c>
       <c r="F24">
-        <v>2.310344341473368</v>
+        <v>1.905391631382969</v>
       </c>
       <c r="G24">
-        <v>0.002442013734416874</v>
+        <v>0.0007984782579497666</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.05394901721871292</v>
+        <v>0.02478589232491846</v>
       </c>
       <c r="K24">
-        <v>0.3611565028215864</v>
+        <v>1.126045558045917</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.4749531514052947</v>
+        <v>0.8840601045616836</v>
       </c>
       <c r="N24">
-        <v>1.622592382937378</v>
+        <v>0.6799120643297583</v>
       </c>
       <c r="O24">
-        <v>2.856121336769661</v>
+        <v>1.479863268073871</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3429686544833714</v>
+        <v>0.932390570683566</v>
       </c>
       <c r="C25">
-        <v>0.03859913604028975</v>
+        <v>0.1028550749526715</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.4815640737982321</v>
+        <v>0.486361189289461</v>
       </c>
       <c r="F25">
-        <v>2.275070279599689</v>
+        <v>1.6639705890275</v>
       </c>
       <c r="G25">
-        <v>0.002445820110854832</v>
+        <v>0.0008047389891038665</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.05456527271707845</v>
+        <v>0.02623289350621061</v>
       </c>
       <c r="K25">
-        <v>0.3008121332303517</v>
+        <v>0.9229472916677537</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4341873307988706</v>
+        <v>0.7248535807500573</v>
       </c>
       <c r="N25">
-        <v>1.653216747300803</v>
+        <v>0.7530930129006612</v>
       </c>
       <c r="O25">
-        <v>2.880386043370947</v>
+        <v>1.430733478837197</v>
       </c>
     </row>
   </sheetData>
